--- a/biology/Médecine/François_Bricaire/François_Bricaire.xlsx
+++ b/biology/Médecine/François_Bricaire/François_Bricaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Bricaire</t>
+          <t>François_Bricaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">François Bricaire, né le 8 août 1947 à Neuilly-sur-Seine, est un infectiologue français membre de l’Académie nationale de médecine et ancien chef du service maladies infectieuses et tropicales de l’Hôpital de la Salpêtrière. Il est professeur à l'Université Pierre-et-Marie-Curie[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">François Bricaire, né le 8 août 1947 à Neuilly-sur-Seine, est un infectiologue français membre de l’Académie nationale de médecine et ancien chef du service maladies infectieuses et tropicales de l’Hôpital de la Salpêtrière. Il est professeur à l'Université Pierre-et-Marie-Curie,.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Bricaire</t>
+          <t>François_Bricaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Officier de la Légion d'honneur (décret du 31 décembre 2020)[3] (Chevalier du 8 juin 2001)</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Officier de la Légion d'honneur (décret du 31 décembre 2020) (Chevalier du 8 juin 2001)</t>
         </is>
       </c>
     </row>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Bricaire</t>
+          <t>François_Bricaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,7 +555,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>C'est quoi une pandémie, avec Jean-Philippe Derenne et Christophe Donner, Michelange 80p.  (ISBN 2918578029)
 Maladies infectieuses, avec Léopoldine Bricaire-Dubreuil, Elsevier Masson 136 p., 2010  (ISBN 2294709969)
